--- a/tut05/output/0501EE01.xlsx
+++ b/tut05/output/0501EE01.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C6" t="n">
-        <v>6.454545454545454</v>
+        <v>6.45</v>
       </c>
       <c r="D6" t="n">
-        <v>6.565217391304348</v>
+        <v>6.57</v>
       </c>
       <c r="E6" t="n">
-        <v>6.891304347826087</v>
+        <v>6.89</v>
       </c>
       <c r="F6" t="n">
-        <v>7.307692307692307</v>
+        <v>7.31</v>
       </c>
       <c r="G6" t="n">
-        <v>6.825</v>
+        <v>6.83</v>
       </c>
       <c r="H6" t="n">
-        <v>7.27906976744186</v>
+        <v>7.28</v>
       </c>
       <c r="I6" t="n">
-        <v>6.842105263157895</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.204081632653061</v>
+        <v>7.2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.849462365591398</v>
+        <v>6.85</v>
       </c>
       <c r="D8" t="n">
-        <v>6.755395683453237</v>
+        <v>6.76</v>
       </c>
       <c r="E8" t="n">
-        <v>6.789189189189189</v>
+        <v>6.79</v>
       </c>
       <c r="F8" t="n">
-        <v>6.879464285714286</v>
+        <v>6.88</v>
       </c>
       <c r="G8" t="n">
-        <v>6.871212121212121</v>
+        <v>6.87</v>
       </c>
       <c r="H8" t="n">
-        <v>6.928338762214984</v>
+        <v>6.93</v>
       </c>
       <c r="I8" t="n">
-        <v>6.918840579710145</v>
+        <v>6.92</v>
       </c>
     </row>
   </sheetData>
